--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Jag1-Notch1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Jag1-Notch1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.210890225460041</v>
+        <v>10.27784</v>
       </c>
       <c r="H2">
-        <v>9.210890225460041</v>
+        <v>30.83352</v>
       </c>
       <c r="I2">
-        <v>0.2220156004549328</v>
+        <v>0.230301226653591</v>
       </c>
       <c r="J2">
-        <v>0.2220156004549328</v>
+        <v>0.230301226653591</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.2164389301673</v>
+        <v>47.57896333333333</v>
       </c>
       <c r="N2">
-        <v>44.2164389301673</v>
+        <v>142.73689</v>
       </c>
       <c r="O2">
-        <v>0.4349327110651062</v>
+        <v>0.450188452948237</v>
       </c>
       <c r="P2">
-        <v>0.4349327110651062</v>
+        <v>0.4501884529482371</v>
       </c>
       <c r="Q2">
-        <v>407.2727651465288</v>
+        <v>489.0089725058666</v>
       </c>
       <c r="R2">
-        <v>407.2727651465288</v>
+        <v>4401.0807525528</v>
       </c>
       <c r="S2">
-        <v>0.09656184700461135</v>
+        <v>0.1036789529392614</v>
       </c>
       <c r="T2">
-        <v>0.09656184700461135</v>
+        <v>0.1036789529392614</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.210890225460041</v>
+        <v>10.27784</v>
       </c>
       <c r="H3">
-        <v>9.210890225460041</v>
+        <v>30.83352</v>
       </c>
       <c r="I3">
-        <v>0.2220156004549328</v>
+        <v>0.230301226653591</v>
       </c>
       <c r="J3">
-        <v>0.2220156004549328</v>
+        <v>0.230301226653591</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.80058938434733</v>
+        <v>9.829723666666666</v>
       </c>
       <c r="N3">
-        <v>9.80058938434733</v>
+        <v>29.489171</v>
       </c>
       <c r="O3">
-        <v>0.09640298979531495</v>
+        <v>0.09300808131111737</v>
       </c>
       <c r="P3">
-        <v>0.09640298979531495</v>
+        <v>0.09300808131111739</v>
       </c>
       <c r="Q3">
-        <v>90.27215296403226</v>
+        <v>101.0283270902133</v>
       </c>
       <c r="R3">
-        <v>90.27215296403226</v>
+        <v>909.2549438119199</v>
       </c>
       <c r="S3">
-        <v>0.02140296766505761</v>
+        <v>0.02141987521464726</v>
       </c>
       <c r="T3">
-        <v>0.02140296766505761</v>
+        <v>0.02141987521464727</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.210890225460041</v>
+        <v>10.27784</v>
       </c>
       <c r="H4">
-        <v>9.210890225460041</v>
+        <v>30.83352</v>
       </c>
       <c r="I4">
-        <v>0.2220156004549328</v>
+        <v>0.230301226653591</v>
       </c>
       <c r="J4">
-        <v>0.2220156004549328</v>
+        <v>0.230301226653591</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.4624549154026</v>
+        <v>10.933664</v>
       </c>
       <c r="N4">
-        <v>10.4624549154026</v>
+        <v>32.800992</v>
       </c>
       <c r="O4">
-        <v>0.1029133958060083</v>
+        <v>0.1034534789405002</v>
       </c>
       <c r="P4">
-        <v>0.1029133958060083</v>
+        <v>0.1034534789405003</v>
       </c>
       <c r="Q4">
-        <v>96.36852371459815</v>
+        <v>112.37444920576</v>
       </c>
       <c r="R4">
-        <v>96.36852371459815</v>
+        <v>1011.37004285184</v>
       </c>
       <c r="S4">
-        <v>0.02284837936472708</v>
+        <v>0.02382546310157865</v>
       </c>
       <c r="T4">
-        <v>0.02284837936472708</v>
+        <v>0.02382546310157865</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.210890225460041</v>
+        <v>10.27784</v>
       </c>
       <c r="H5">
-        <v>9.210890225460041</v>
+        <v>30.83352</v>
       </c>
       <c r="I5">
-        <v>0.2220156004549328</v>
+        <v>0.230301226653591</v>
       </c>
       <c r="J5">
-        <v>0.2220156004549328</v>
+        <v>0.230301226653591</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>37.1832287373793</v>
+        <v>37.34441866666666</v>
       </c>
       <c r="N5">
-        <v>37.1832287373793</v>
+        <v>112.033256</v>
       </c>
       <c r="O5">
-        <v>0.3657509033335706</v>
+        <v>0.3533499868001453</v>
       </c>
       <c r="P5">
-        <v>0.3657509033335706</v>
+        <v>0.3533499868001453</v>
       </c>
       <c r="Q5">
-        <v>342.4906381281719</v>
+        <v>383.8199599490133</v>
       </c>
       <c r="R5">
-        <v>342.4906381281719</v>
+        <v>3454.37963954112</v>
       </c>
       <c r="S5">
-        <v>0.08120240642053675</v>
+        <v>0.08137693539810366</v>
       </c>
       <c r="T5">
-        <v>0.08120240642053675</v>
+        <v>0.08137693539810366</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.517112246968</v>
+        <v>14.56812733333333</v>
       </c>
       <c r="H6">
-        <v>14.517112246968</v>
+        <v>43.704382</v>
       </c>
       <c r="I6">
-        <v>0.3499146459778034</v>
+        <v>0.3264360600001921</v>
       </c>
       <c r="J6">
-        <v>0.3499146459778034</v>
+        <v>0.326436060000192</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>44.2164389301673</v>
+        <v>47.57896333333333</v>
       </c>
       <c r="N6">
-        <v>44.2164389301673</v>
+        <v>142.73689</v>
       </c>
       <c r="O6">
-        <v>0.4349327110651062</v>
+        <v>0.450188452948237</v>
       </c>
       <c r="P6">
-        <v>0.4349327110651062</v>
+        <v>0.4501884529482371</v>
       </c>
       <c r="Q6">
-        <v>641.8950071104443</v>
+        <v>693.1363962279976</v>
       </c>
       <c r="R6">
-        <v>641.8950071104443</v>
+        <v>6238.227566051979</v>
       </c>
       <c r="S6">
-        <v>0.1521893256165129</v>
+        <v>0.1469577448380044</v>
       </c>
       <c r="T6">
-        <v>0.1521893256165129</v>
+        <v>0.1469577448380043</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>14.517112246968</v>
+        <v>14.56812733333333</v>
       </c>
       <c r="H7">
-        <v>14.517112246968</v>
+        <v>43.704382</v>
       </c>
       <c r="I7">
-        <v>0.3499146459778034</v>
+        <v>0.3264360600001921</v>
       </c>
       <c r="J7">
-        <v>0.3499146459778034</v>
+        <v>0.326436060000192</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.80058938434733</v>
+        <v>9.829723666666666</v>
       </c>
       <c r="N7">
-        <v>9.80058938434733</v>
+        <v>29.489171</v>
       </c>
       <c r="O7">
-        <v>0.09640298979531495</v>
+        <v>0.09300808131111737</v>
       </c>
       <c r="P7">
-        <v>0.09640298979531495</v>
+        <v>0.09300808131111739</v>
       </c>
       <c r="Q7">
-        <v>142.2762561790132</v>
+        <v>143.2006660274802</v>
       </c>
       <c r="R7">
-        <v>142.2762561790132</v>
+        <v>1288.805994247322</v>
       </c>
       <c r="S7">
-        <v>0.03373281804542942</v>
+        <v>0.03036119161137866</v>
       </c>
       <c r="T7">
-        <v>0.03373281804542942</v>
+        <v>0.03036119161137866</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>14.517112246968</v>
+        <v>14.56812733333333</v>
       </c>
       <c r="H8">
-        <v>14.517112246968</v>
+        <v>43.704382</v>
       </c>
       <c r="I8">
-        <v>0.3499146459778034</v>
+        <v>0.3264360600001921</v>
       </c>
       <c r="J8">
-        <v>0.3499146459778034</v>
+        <v>0.326436060000192</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.4624549154026</v>
+        <v>10.933664</v>
       </c>
       <c r="N8">
-        <v>10.4624549154026</v>
+        <v>32.800992</v>
       </c>
       <c r="O8">
-        <v>0.1029133958060083</v>
+        <v>0.1034534789405002</v>
       </c>
       <c r="P8">
-        <v>0.1029133958060083</v>
+        <v>0.1034534789405003</v>
       </c>
       <c r="Q8">
-        <v>151.8846323857416</v>
+        <v>159.2830093718827</v>
       </c>
       <c r="R8">
-        <v>151.8846323857416</v>
+        <v>1433.547084346944</v>
       </c>
       <c r="S8">
-        <v>0.03601090445983293</v>
+        <v>0.03377094605864975</v>
       </c>
       <c r="T8">
-        <v>0.03601090445983293</v>
+        <v>0.03377094605864975</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>14.517112246968</v>
+        <v>14.56812733333333</v>
       </c>
       <c r="H9">
-        <v>14.517112246968</v>
+        <v>43.704382</v>
       </c>
       <c r="I9">
-        <v>0.3499146459778034</v>
+        <v>0.3264360600001921</v>
       </c>
       <c r="J9">
-        <v>0.3499146459778034</v>
+        <v>0.326436060000192</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>37.1832287373793</v>
+        <v>37.34441866666666</v>
       </c>
       <c r="N9">
-        <v>37.1832287373793</v>
+        <v>112.033256</v>
       </c>
       <c r="O9">
-        <v>0.3657509033335706</v>
+        <v>0.3533499868001453</v>
       </c>
       <c r="P9">
-        <v>0.3657509033335706</v>
+        <v>0.3533499868001453</v>
       </c>
       <c r="Q9">
-        <v>539.7931052852216</v>
+        <v>544.0382463253101</v>
       </c>
       <c r="R9">
-        <v>539.7931052852216</v>
+        <v>4896.344216927791</v>
       </c>
       <c r="S9">
-        <v>0.1279815978560281</v>
+        <v>0.1153461774921593</v>
       </c>
       <c r="T9">
-        <v>0.1279815978560281</v>
+        <v>0.1153461774921593</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.3095708462816</v>
+        <v>2.650137</v>
       </c>
       <c r="H10">
-        <v>2.3095708462816</v>
+        <v>7.950411</v>
       </c>
       <c r="I10">
-        <v>0.05566896854476481</v>
+        <v>0.05938308067649115</v>
       </c>
       <c r="J10">
-        <v>0.05566896854476481</v>
+        <v>0.05938308067649114</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>44.2164389301673</v>
+        <v>47.57896333333333</v>
       </c>
       <c r="N10">
-        <v>44.2164389301673</v>
+        <v>142.73689</v>
       </c>
       <c r="O10">
-        <v>0.4349327110651062</v>
+        <v>0.450188452948237</v>
       </c>
       <c r="P10">
-        <v>0.4349327110651062</v>
+        <v>0.4501884529482371</v>
       </c>
       <c r="Q10">
-        <v>102.1209982795052</v>
+        <v>126.09077115131</v>
       </c>
       <c r="R10">
-        <v>102.1209982795052</v>
+        <v>1134.81694036179</v>
       </c>
       <c r="S10">
-        <v>0.02421225541137268</v>
+        <v>0.0267335772210499</v>
       </c>
       <c r="T10">
-        <v>0.02421225541137268</v>
+        <v>0.0267335772210499</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.3095708462816</v>
+        <v>2.650137</v>
       </c>
       <c r="H11">
-        <v>2.3095708462816</v>
+        <v>7.950411</v>
       </c>
       <c r="I11">
-        <v>0.05566896854476481</v>
+        <v>0.05938308067649115</v>
       </c>
       <c r="J11">
-        <v>0.05566896854476481</v>
+        <v>0.05938308067649114</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.80058938434733</v>
+        <v>9.829723666666666</v>
       </c>
       <c r="N11">
-        <v>9.80058938434733</v>
+        <v>29.489171</v>
       </c>
       <c r="O11">
-        <v>0.09640298979531495</v>
+        <v>0.09300808131111737</v>
       </c>
       <c r="P11">
-        <v>0.09640298979531495</v>
+        <v>0.09300808131111739</v>
       </c>
       <c r="Q11">
-        <v>22.63515551846552</v>
+        <v>26.050114388809</v>
       </c>
       <c r="R11">
-        <v>22.63515551846552</v>
+        <v>234.451029499281</v>
       </c>
       <c r="S11">
-        <v>0.005366655006536671</v>
+        <v>0.005523106396063731</v>
       </c>
       <c r="T11">
-        <v>0.005366655006536671</v>
+        <v>0.005523106396063732</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.3095708462816</v>
+        <v>2.650137</v>
       </c>
       <c r="H12">
-        <v>2.3095708462816</v>
+        <v>7.950411</v>
       </c>
       <c r="I12">
-        <v>0.05566896854476481</v>
+        <v>0.05938308067649115</v>
       </c>
       <c r="J12">
-        <v>0.05566896854476481</v>
+        <v>0.05938308067649114</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.4624549154026</v>
+        <v>10.933664</v>
       </c>
       <c r="N12">
-        <v>10.4624549154026</v>
+        <v>32.800992</v>
       </c>
       <c r="O12">
-        <v>0.1029133958060083</v>
+        <v>0.1034534789405002</v>
       </c>
       <c r="P12">
-        <v>0.1029133958060083</v>
+        <v>0.1034534789405003</v>
       </c>
       <c r="Q12">
-        <v>24.16378085314946</v>
+        <v>28.975707511968</v>
       </c>
       <c r="R12">
-        <v>24.16378085314946</v>
+        <v>260.781367607712</v>
       </c>
       <c r="S12">
-        <v>0.005729082593959604</v>
+        <v>0.006143386286187404</v>
       </c>
       <c r="T12">
-        <v>0.005729082593959604</v>
+        <v>0.006143386286187404</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.3095708462816</v>
+        <v>2.650137</v>
       </c>
       <c r="H13">
-        <v>2.3095708462816</v>
+        <v>7.950411</v>
       </c>
       <c r="I13">
-        <v>0.05566896854476481</v>
+        <v>0.05938308067649115</v>
       </c>
       <c r="J13">
-        <v>0.05566896854476481</v>
+        <v>0.05938308067649114</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>37.1832287373793</v>
+        <v>37.34441866666666</v>
       </c>
       <c r="N13">
-        <v>37.1832287373793</v>
+        <v>112.033256</v>
       </c>
       <c r="O13">
-        <v>0.3657509033335706</v>
+        <v>0.3533499868001453</v>
       </c>
       <c r="P13">
-        <v>0.3657509033335706</v>
+        <v>0.3533499868001453</v>
       </c>
       <c r="Q13">
-        <v>85.87730106247142</v>
+        <v>98.96782565202399</v>
       </c>
       <c r="R13">
-        <v>85.87730106247142</v>
+        <v>890.7104308682159</v>
       </c>
       <c r="S13">
-        <v>0.02036097553289586</v>
+        <v>0.02098301077319011</v>
       </c>
       <c r="T13">
-        <v>0.02036097553289586</v>
+        <v>0.02098301077319011</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>15.4500077638178</v>
+        <v>17.13170833333333</v>
       </c>
       <c r="H14">
-        <v>15.4500077638178</v>
+        <v>51.395125</v>
       </c>
       <c r="I14">
-        <v>0.372400785022499</v>
+        <v>0.3838796326697257</v>
       </c>
       <c r="J14">
-        <v>0.372400785022499</v>
+        <v>0.3838796326697257</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>44.2164389301673</v>
+        <v>47.57896333333333</v>
       </c>
       <c r="N14">
-        <v>44.2164389301673</v>
+        <v>142.73689</v>
       </c>
       <c r="O14">
-        <v>0.4349327110651062</v>
+        <v>0.450188452948237</v>
       </c>
       <c r="P14">
-        <v>0.4349327110651062</v>
+        <v>0.4501884529482371</v>
       </c>
       <c r="Q14">
-        <v>683.1443247594603</v>
+        <v>815.1089226290276</v>
       </c>
       <c r="R14">
-        <v>683.1443247594603</v>
+        <v>7335.980303661249</v>
       </c>
       <c r="S14">
-        <v>0.1619692830326093</v>
+        <v>0.1728181779499213</v>
       </c>
       <c r="T14">
-        <v>0.1619692830326093</v>
+        <v>0.1728181779499213</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>15.4500077638178</v>
+        <v>17.13170833333333</v>
       </c>
       <c r="H15">
-        <v>15.4500077638178</v>
+        <v>51.395125</v>
       </c>
       <c r="I15">
-        <v>0.372400785022499</v>
+        <v>0.3838796326697257</v>
       </c>
       <c r="J15">
-        <v>0.372400785022499</v>
+        <v>0.3838796326697257</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.80058938434733</v>
+        <v>9.829723666666666</v>
       </c>
       <c r="N15">
-        <v>9.80058938434733</v>
+        <v>29.489171</v>
       </c>
       <c r="O15">
-        <v>0.09640298979531495</v>
+        <v>0.09300808131111737</v>
       </c>
       <c r="P15">
-        <v>0.09640298979531495</v>
+        <v>0.09300808131111739</v>
       </c>
       <c r="Q15">
-        <v>151.4191820781566</v>
+        <v>168.3999588545972</v>
       </c>
       <c r="R15">
-        <v>151.4191820781566</v>
+        <v>1515.599629691375</v>
       </c>
       <c r="S15">
-        <v>0.03590054907829125</v>
+        <v>0.03570390808902772</v>
       </c>
       <c r="T15">
-        <v>0.03590054907829125</v>
+        <v>0.03570390808902772</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>15.4500077638178</v>
+        <v>17.13170833333333</v>
       </c>
       <c r="H16">
-        <v>15.4500077638178</v>
+        <v>51.395125</v>
       </c>
       <c r="I16">
-        <v>0.372400785022499</v>
+        <v>0.3838796326697257</v>
       </c>
       <c r="J16">
-        <v>0.372400785022499</v>
+        <v>0.3838796326697257</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>10.4624549154026</v>
+        <v>10.933664</v>
       </c>
       <c r="N16">
-        <v>10.4624549154026</v>
+        <v>32.800992</v>
       </c>
       <c r="O16">
-        <v>0.1029133958060083</v>
+        <v>0.1034534789405002</v>
       </c>
       <c r="P16">
-        <v>0.1029133958060083</v>
+        <v>0.1034534789405003</v>
       </c>
       <c r="Q16">
-        <v>161.6450096715639</v>
+        <v>187.3123426626667</v>
       </c>
       <c r="R16">
-        <v>161.6450096715639</v>
+        <v>1685.811083964</v>
       </c>
       <c r="S16">
-        <v>0.03832502938748863</v>
+        <v>0.03971368349408445</v>
       </c>
       <c r="T16">
-        <v>0.03832502938748863</v>
+        <v>0.03971368349408445</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>15.4500077638178</v>
+        <v>17.13170833333333</v>
       </c>
       <c r="H17">
-        <v>15.4500077638178</v>
+        <v>51.395125</v>
       </c>
       <c r="I17">
-        <v>0.372400785022499</v>
+        <v>0.3838796326697257</v>
       </c>
       <c r="J17">
-        <v>0.372400785022499</v>
+        <v>0.3838796326697257</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>37.1832287373793</v>
+        <v>37.34441866666666</v>
       </c>
       <c r="N17">
-        <v>37.1832287373793</v>
+        <v>112.033256</v>
       </c>
       <c r="O17">
-        <v>0.3657509033335706</v>
+        <v>0.3533499868001453</v>
       </c>
       <c r="P17">
-        <v>0.3657509033335706</v>
+        <v>0.3533499868001453</v>
       </c>
       <c r="Q17">
-        <v>574.4811726763234</v>
+        <v>639.7736884752221</v>
       </c>
       <c r="R17">
-        <v>574.4811726763234</v>
+        <v>5757.963196277</v>
       </c>
       <c r="S17">
-        <v>0.1362059235241098</v>
+        <v>0.1356438631366922</v>
       </c>
       <c r="T17">
-        <v>0.1362059235241098</v>
+        <v>0.1356438631366922</v>
       </c>
     </row>
   </sheetData>
